--- a/biology/Zoologie/Carlana_eigenmanni/Carlana_eigenmanni.xlsx
+++ b/biology/Zoologie/Carlana_eigenmanni/Carlana_eigenmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlana
 Carlana eigenmanni, unique représentant du genre Carlana, est une espèce de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlana eigenmanni est un poisson d'Amérique centrale qui se rencontre au Costa Rica, au Nicaragua et au Panama[1].
-Ce poisson se rencontre exclusivement près des rives des bras morts de rivières ou d'autres biotopes d'eau stagnante et ce entre 35 et 85 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlana eigenmanni est un poisson d'Amérique centrale qui se rencontre au Costa Rica, au Nicaragua et au Panama.
+Ce poisson se rencontre exclusivement près des rives des bras morts de rivières ou d'autres biotopes d'eau stagnante et ce entre 35 et 85 m d'altitude.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlana eigenmanni peut mesurer jusqu'à 54 mm, queue non comprise[2]. Cette espèce se nourrit principalement d'algues filamenteuses et occasionnellement d'insectes aquatiques[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlana eigenmanni peut mesurer jusqu'à 54 mm, queue non comprise. Cette espèce se nourrit principalement d'algues filamenteuses et occasionnellement d'insectes aquatiques.
 </t>
         </is>
       </c>
@@ -575,16 +591,18 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Carlana eigenmanni (Meek, 1912)[3].
-L'espèce a été initialement décrite en 1912 par l'ichtyologiste Seth Eugene Meek (d) (1859-1914) dans le genre Cheirodon sous le protonyme Cheirodon eigenmanni Meek, 1912[3],[4].
-En 1914, Meek crée le genre Carlia sans remarquer que celui-ci est déjà occupé par des reptiles (Carlia Gray, 1845)[5],[6].
-En 1928, le zoologiste norvégien Embrik Strand (1876-1947) crée le genre Carlana en remplacement du genre Carlia proposé par Meek en 1914 et reclasse l'espèce sous son taxon actuel[3],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Carlana eigenmanni (Meek, 1912).
+L'espèce a été initialement décrite en 1912 par l'ichtyologiste Seth Eugene Meek (d) (1859-1914) dans le genre Cheirodon sous le protonyme Cheirodon eigenmanni Meek, 1912,.
+En 1914, Meek crée le genre Carlia sans remarquer que celui-ci est déjà occupé par des reptiles (Carlia Gray, 1845),.
+En 1928, le zoologiste norvégien Embrik Strand (1876-1947) crée le genre Carlana en remplacement du genre Carlia proposé par Meek en 1914 et reclasse l'espèce sous son taxon actuel,.
 Carlana eigenmanni a pour synonymes :
-Carlia eigenmanni (Meek, 1912)[5],[6]
-Cheirodon eigenmanni Meek, 1912[3]
-Rhoadsia eigenmanni (Meek, 1912)[3]</t>
+Carlia eigenmanni (Meek, 1912),
+Cheirodon eigenmanni Meek, 1912
+Rhoadsia eigenmanni (Meek, 1912)</t>
         </is>
       </c>
     </row>
@@ -612,10 +630,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Carlana, a été choisi en l'honneur de l'ichtyologiste américain d'origine allemande Carl H. Eigenmann (1863–1927) qui a suggéré de remplacer le genre Carlia proposé par Meek en 1914, car ce genre était déjà occupé[5].
-L'épithète spécifique, eigenmanni, lui a été donnée en l'honneur de ce même Carl H. Eigenmann « qui a fait plus que quiconque pour accroître nos connaissances sur les Characins, la famille de poissons la plus intéressante des eaux douces des Amériques »[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Carlana, a été choisi en l'honneur de l'ichtyologiste américain d'origine allemande Carl H. Eigenmann (1863–1927) qui a suggéré de remplacer le genre Carlia proposé par Meek en 1914, car ce genre était déjà occupé.
+L'épithète spécifique, eigenmanni, lui a été donnée en l'honneur de ce même Carl H. Eigenmann « qui a fait plus que quiconque pour accroître nos connaissances sur les Characins, la famille de poissons la plus intéressante des eaux douces des Amériques ».
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Genre Carlana :
 (de) Embrik Strand, « Miscellanea nomenclatorica zoologica et palaeontologica », Archiv für Naturgeschichte. Abteilung A., Berlin, vol. 92, no 8,‎ juillet 1928, p. 30-75 (lire en ligne, consulté le 16 décembre 2023).
